--- a/biology/Médecine/ITGAM/ITGAM.xlsx
+++ b/biology/Médecine/ITGAM/ITGAM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ITGAM (pour « Integrin alpha M »), ou CD11B est une protéine de type intégrine et cluster de différenciation. Son gène est ITGAM porté sur le chromosome 16 humain.
 </t>
@@ -511,9 +523,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il forme, avec le CD18, le Mac-1 (« Macrophage-1 antigen »). Il inhibe le signal des récepteurs de type Toll par l'intermédiaire de l'activation du SYK et du Src[5]. Il contribue au phénomène de  tolérance (immunologie) par les lymphocytes B en inhibant son récepteur[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il forme, avec le CD18, le Mac-1 (« Macrophage-1 antigen »). Il inhibe le signal des récepteurs de type Toll par l'intermédiaire de l'activation du SYK et du Src. Il contribue au phénomène de  tolérance (immunologie) par les lymphocytes B en inhibant son récepteur.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs variants du gène est corrélé avec une augmentation du risque de survenue d'un lupus érythémateux disséminé[7]. Il entraîne alors une dysfonction du Mac-1 au niveau des polynucléaires neutrophiles[8], altérant l'adhésion cellulaire par l'ICAM-1 et 2[9]. Un variant du gène augmente plus spécifiquement le risque d'atteinte rénale et de rash de type discoïde[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs variants du gène est corrélé avec une augmentation du risque de survenue d'un lupus érythémateux disséminé. Il entraîne alors une dysfonction du Mac-1 au niveau des polynucléaires neutrophiles, altérant l'adhésion cellulaire par l'ICAM-1 et 2. Un variant du gène augmente plus spécifiquement le risque d'atteinte rénale et de rash de type discoïde.
 </t>
         </is>
       </c>
